--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264763.5874402935</v>
+        <v>263792.7691228924</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5487711.103805874</v>
+        <v>5539643.434902933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22005207.51391003</v>
+        <v>22056106.39161828</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4043236.34526618</v>
+        <v>4017388.656361671</v>
       </c>
     </row>
     <row r="11">
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>44.21387696367703</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>50.19740799690857</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24.40088325534109</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="25">
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>24.40088325534111</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V25" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>35.12750559103188</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>43.55459982911465</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>50.19740799690857</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D29" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V31" t="n">
-        <v>24.40088325534109</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>44.21387696367703</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3229,28 +3231,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U34" t="n">
-        <v>24.4008832553411</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="C35" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>35.12750559103188</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>35.12750559103188</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
     </row>
     <row r="37">
@@ -3436,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>20.35309587319855</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>35.12750559103188</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="X38" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="Y38" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.19740799690857</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.4008832553411</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="X40" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
     </row>
     <row r="43">
@@ -3940,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S43" t="n">
-        <v>50.19740799690857</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.40088325534112</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="44">
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4056,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C20" t="n">
-        <v>105.4246976840124</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D20" t="n">
-        <v>105.4246976840124</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E20" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F20" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G20" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H20" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I20" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J20" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K20" t="n">
-        <v>47.68438300469032</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L20" t="n">
-        <v>97.3798169216298</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M20" t="n">
-        <v>147.0752508385693</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N20" t="n">
-        <v>196.7706847555088</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="O20" t="n">
-        <v>196.7706847555088</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P20" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R20" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S20" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="U20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="V20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J21" t="n">
-        <v>11.40910348623759</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K21" t="n">
-        <v>11.40910348623759</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L21" t="n">
-        <v>61.10453740317706</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M21" t="n">
-        <v>101.3987641537553</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N21" t="n">
-        <v>101.3987641537553</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O21" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R21" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S21" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T21" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U21" t="n">
-        <v>150.0851794655044</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V21" t="n">
-        <v>99.38072694337451</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W21" t="n">
-        <v>54.72024516188256</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X21" t="n">
-        <v>4.015792639752686</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.015792639752686</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C22" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D22" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E22" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F22" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G22" t="n">
-        <v>99.38072694337451</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H22" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I22" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J22" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K22" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L22" t="n">
-        <v>61.11543652438698</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M22" t="n">
-        <v>110.8108704413265</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N22" t="n">
-        <v>160.5063043582659</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O22" t="n">
-        <v>194.7288303079373</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P22" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R22" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T22" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U22" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V22" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W22" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X22" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.72024516188256</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C23" t="n">
-        <v>54.72024516188256</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D23" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="E23" t="n">
-        <v>4.015792639752686</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="F23" t="n">
-        <v>4.015792639752686</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="G23" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K23" t="n">
-        <v>4.015792639752686</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="L23" t="n">
-        <v>53.71122655669217</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4066604736316</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="N23" t="n">
-        <v>153.1020943905711</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O23" t="n">
-        <v>196.7706847555088</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P23" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R23" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S23" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T23" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U23" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V23" t="n">
-        <v>105.4246976840124</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W23" t="n">
-        <v>105.4246976840124</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X23" t="n">
-        <v>105.4246976840124</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y23" t="n">
-        <v>54.72024516188256</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.72024516188256</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C24" t="n">
-        <v>54.72024516188256</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="D24" t="n">
-        <v>4.015792639752686</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E24" t="n">
-        <v>4.015792639752686</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L24" t="n">
-        <v>53.71122655669217</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="M24" t="n">
-        <v>101.3987641537553</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N24" t="n">
-        <v>151.0941980706948</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="O24" t="n">
-        <v>200.7896319876343</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7896319876343</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U24" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V24" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W24" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X24" t="n">
-        <v>105.4246976840124</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.4246976840124</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="C25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="D25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="E25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="F25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="G25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="H25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="I25" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="J25" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="K25" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="L25" t="n">
-        <v>41.10231156647188</v>
+        <v>40.27702806305272</v>
       </c>
       <c r="M25" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517987</v>
       </c>
       <c r="N25" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O25" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P25" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R25" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S25" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T25" t="n">
-        <v>130.0720545075893</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U25" t="n">
-        <v>130.0720545075893</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V25" t="n">
-        <v>79.36760198545944</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="X25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.681729139310681</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C26" t="n">
-        <v>4.681729139310681</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D26" t="n">
-        <v>4.681729139310681</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E26" t="n">
-        <v>4.681729139310681</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F26" t="n">
-        <v>4.681729139310681</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G26" t="n">
-        <v>4.681729139310681</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H26" t="n">
-        <v>4.681729139310681</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I26" t="n">
-        <v>4.681729139310681</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J26" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K26" t="n">
-        <v>53.71122655669217</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L26" t="n">
-        <v>103.4066604736316</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="M26" t="n">
-        <v>103.4066604736316</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N26" t="n">
-        <v>147.0752508385693</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O26" t="n">
-        <v>196.7706847555088</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P26" t="n">
-        <v>196.7706847555088</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R26" t="n">
-        <v>156.7950867057003</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S26" t="n">
-        <v>156.7950867057003</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T26" t="n">
-        <v>106.0906341835704</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U26" t="n">
-        <v>106.0906341835704</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V26" t="n">
-        <v>106.0906341835704</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W26" t="n">
-        <v>55.38618166144055</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X26" t="n">
-        <v>55.38618166144055</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.38618166144055</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.38072694337451</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L27" t="n">
-        <v>53.71122655669217</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M27" t="n">
-        <v>103.4066604736316</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N27" t="n">
-        <v>153.1020943905711</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="O27" t="n">
-        <v>200.7896319876343</v>
+        <v>121.638160822715</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R27" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S27" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T27" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U27" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="V27" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W27" t="n">
-        <v>150.0851794655044</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X27" t="n">
-        <v>150.0851794655044</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y27" t="n">
-        <v>99.38072694337451</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L28" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M28" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N28" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O28" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P28" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R28" t="n">
-        <v>79.36760198545944</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S28" t="n">
-        <v>28.66314946332957</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T28" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U28" t="n">
-        <v>4.015792639752686</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V28" t="n">
-        <v>4.015792639752686</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W28" t="n">
-        <v>4.015792639752686</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.38072694337451</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C29" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D29" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E29" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F29" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G29" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L29" t="n">
-        <v>53.71122655669217</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M29" t="n">
-        <v>103.4066604736316</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N29" t="n">
-        <v>153.1020943905711</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="O29" t="n">
-        <v>196.7706847555088</v>
+        <v>121.638160822715</v>
       </c>
       <c r="P29" t="n">
-        <v>196.7706847555088</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R29" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S29" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T29" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U29" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V29" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="W29" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X29" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y29" t="n">
-        <v>99.38072694337451</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L30" t="n">
-        <v>53.71122655669217</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M30" t="n">
-        <v>101.3987641537553</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N30" t="n">
-        <v>101.3987641537553</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O30" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P30" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R30" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S30" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T30" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U30" t="n">
-        <v>48.67627442124464</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V30" t="n">
-        <v>48.67627442124464</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W30" t="n">
-        <v>48.67627442124464</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.4378226419275</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C31" t="n">
-        <v>125.4378226419275</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D31" t="n">
-        <v>125.4378226419275</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E31" t="n">
-        <v>125.4378226419275</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F31" t="n">
-        <v>74.73337011979766</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G31" t="n">
-        <v>74.73337011979766</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H31" t="n">
-        <v>74.73337011979766</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I31" t="n">
-        <v>74.73337011979766</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J31" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K31" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L31" t="n">
-        <v>61.11543652438698</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M31" t="n">
-        <v>110.8108704413265</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N31" t="n">
-        <v>160.5063043582659</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O31" t="n">
-        <v>194.7288303079373</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P31" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q31" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R31" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T31" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U31" t="n">
-        <v>150.0851794655044</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V31" t="n">
-        <v>125.4378226419275</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W31" t="n">
-        <v>125.4378226419275</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X31" t="n">
-        <v>125.4378226419275</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.4378226419275</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.67627442124464</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C32" t="n">
-        <v>48.67627442124464</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D32" t="n">
-        <v>48.67627442124464</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E32" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M32" t="n">
-        <v>51.70333023681584</v>
+        <v>37.05885789816839</v>
       </c>
       <c r="N32" t="n">
-        <v>101.3987641537553</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="O32" t="n">
-        <v>151.0941980706948</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P32" t="n">
-        <v>200.7896319876343</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R32" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="S32" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="T32" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U32" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V32" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="W32" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="X32" t="n">
-        <v>99.38072694337451</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y32" t="n">
-        <v>99.38072694337451</v>
+        <v>124.0431279368452</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C33" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D33" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E33" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F33" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G33" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H33" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I33" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J33" t="n">
-        <v>11.40910348623759</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K33" t="n">
-        <v>61.10453740317706</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L33" t="n">
-        <v>101.3987641537553</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="M33" t="n">
-        <v>101.3987641537553</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N33" t="n">
-        <v>101.3987641537553</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O33" t="n">
-        <v>101.3987641537553</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P33" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T33" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U33" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V33" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W33" t="n">
-        <v>150.0851794655044</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X33" t="n">
-        <v>150.0851794655044</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y33" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K34" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L34" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M34" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N34" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O34" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P34" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q34" t="n">
-        <v>180.7765070297192</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="R34" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="S34" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="T34" t="n">
-        <v>180.7765070297192</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="U34" t="n">
-        <v>156.1291502061423</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="V34" t="n">
-        <v>105.4246976840124</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="W34" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X34" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>48.67627442124464</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C35" t="n">
-        <v>4.015792639752686</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D35" t="n">
-        <v>4.015792639752686</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E35" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F35" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G35" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H35" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="I35" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="J35" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="K35" t="n">
-        <v>47.68438300469032</v>
+        <v>42.67305969846067</v>
       </c>
       <c r="L35" t="n">
-        <v>97.3798169216298</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M35" t="n">
-        <v>147.0752508385693</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N35" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="O35" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P35" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W35" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498382</v>
       </c>
       <c r="X35" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498382</v>
       </c>
       <c r="Y35" t="n">
-        <v>99.38072694337451</v>
+        <v>119.2412505498382</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C36" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D36" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E36" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F36" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G36" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="H36" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="I36" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="J36" t="n">
-        <v>11.40910348623759</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="K36" t="n">
-        <v>61.10453740317706</v>
+        <v>42.67305969846067</v>
       </c>
       <c r="L36" t="n">
-        <v>110.7999713201165</v>
+        <v>80.56035569242107</v>
       </c>
       <c r="M36" t="n">
-        <v>110.7999713201165</v>
+        <v>80.56035569242107</v>
       </c>
       <c r="N36" t="n">
-        <v>110.7999713201165</v>
+        <v>80.56035569242107</v>
       </c>
       <c r="O36" t="n">
-        <v>151.0941980706948</v>
+        <v>80.56035569242107</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7896319876343</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W36" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="X36" t="n">
-        <v>200.7896319876343</v>
+        <v>83.75892167000796</v>
       </c>
       <c r="Y36" t="n">
-        <v>150.0851794655044</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="D37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="E37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="F37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="G37" t="n">
-        <v>4.015792639752686</v>
+        <v>138.9667741164748</v>
       </c>
       <c r="H37" t="n">
-        <v>4.015792639752686</v>
+        <v>98.68256784963759</v>
       </c>
       <c r="I37" t="n">
-        <v>4.015792639752686</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="J37" t="n">
-        <v>4.015792639752686</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="K37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333508</v>
       </c>
       <c r="L37" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M37" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517987</v>
       </c>
       <c r="N37" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O37" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P37" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R37" t="n">
-        <v>79.36760198545944</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S37" t="n">
-        <v>28.66314946332957</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317072</v>
       </c>
       <c r="C38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K38" t="n">
-        <v>53.71122655669217</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L38" t="n">
-        <v>103.4066604736316</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M38" t="n">
-        <v>153.1020943905711</v>
+        <v>37.0588578981684</v>
       </c>
       <c r="N38" t="n">
-        <v>196.7706847555088</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="O38" t="n">
-        <v>196.7706847555088</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P38" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845498</v>
       </c>
       <c r="Q38" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="R38" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="S38" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368451</v>
       </c>
       <c r="T38" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368451</v>
       </c>
       <c r="U38" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368451</v>
       </c>
       <c r="V38" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368451</v>
       </c>
       <c r="W38" t="n">
-        <v>99.38072694337451</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X38" t="n">
-        <v>48.67627442124464</v>
+        <v>43.47471540317072</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317072</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C39" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D39" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E39" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F39" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G39" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H39" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J39" t="n">
-        <v>11.40910348623759</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K39" t="n">
-        <v>11.40910348623759</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L39" t="n">
-        <v>61.10453740317706</v>
+        <v>89.5489211070727</v>
       </c>
       <c r="M39" t="n">
-        <v>61.10453740317706</v>
+        <v>129.0314716691998</v>
       </c>
       <c r="N39" t="n">
-        <v>61.10453740317706</v>
+        <v>129.0314716691998</v>
       </c>
       <c r="O39" t="n">
-        <v>101.3987641537553</v>
+        <v>129.0314716691998</v>
       </c>
       <c r="P39" t="n">
-        <v>151.0941980706948</v>
+        <v>129.0314716691998</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="R39" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="S39" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T39" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U39" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616372</v>
       </c>
       <c r="V39" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W39" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X39" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L40" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M40" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517984</v>
       </c>
       <c r="N40" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O40" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369783</v>
       </c>
       <c r="P40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="Q40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="R40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="S40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="T40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="U40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="V40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166753</v>
       </c>
       <c r="W40" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X40" t="n">
-        <v>105.4246976840124</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.72024516188256</v>
+        <v>38.67283801616372</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.72024516188256</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C41" t="n">
-        <v>4.015792639752686</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D41" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E41" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F41" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G41" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H41" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I41" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J41" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K41" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L41" t="n">
-        <v>53.71122655669217</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M41" t="n">
-        <v>103.4066604736316</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N41" t="n">
-        <v>147.0752508385693</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="O41" t="n">
-        <v>196.7706847555088</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P41" t="n">
-        <v>196.7706847555088</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R41" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S41" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T41" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U41" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V41" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W41" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X41" t="n">
-        <v>156.1291502061423</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y41" t="n">
-        <v>105.4246976840124</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C42" t="n">
-        <v>150.0851794655044</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D42" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E42" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F42" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G42" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H42" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I42" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J42" t="n">
-        <v>11.40910348623759</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K42" t="n">
-        <v>61.10453740317706</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L42" t="n">
-        <v>101.3987641537553</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="M42" t="n">
-        <v>101.3987641537553</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N42" t="n">
-        <v>101.3987641537553</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O42" t="n">
-        <v>101.3987641537553</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0941980706948</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X42" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y42" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368452</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L43" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M43" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N43" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O43" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P43" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R43" t="n">
-        <v>130.0720545075893</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S43" t="n">
-        <v>79.36760198545944</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="T43" t="n">
-        <v>79.36760198545944</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="U43" t="n">
-        <v>79.36760198545944</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="V43" t="n">
-        <v>79.36760198545944</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="W43" t="n">
-        <v>28.66314946332957</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X43" t="n">
-        <v>28.66314946332957</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
   </sheetData>
@@ -9401,22 +9403,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>258.6972920061668</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L20" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M20" t="n">
-        <v>274.7849853934995</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8751450035847</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O20" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9480,22 +9482,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L21" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M21" t="n">
-        <v>179.2819222159661</v>
+        <v>169.382688273438</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O21" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9565,10 +9567,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M22" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N22" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O22" t="n">
         <v>169.5633330205178</v>
@@ -9638,22 +9640,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>248.7980580636387</v>
       </c>
       <c r="L23" t="n">
-        <v>280.0696625926461</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M23" t="n">
-        <v>274.7849853934995</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N23" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>268.4554433734553</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q23" t="n">
         <v>220.8075902863009</v>
@@ -9720,22 +9722,22 @@
         <v>134.395403</v>
       </c>
       <c r="L24" t="n">
-        <v>185.2879282822859</v>
+        <v>173.3605162388727</v>
       </c>
       <c r="M24" t="n">
-        <v>186.7499129699912</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>189.2287463302419</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9802,10 +9804,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M25" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N25" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O25" t="n">
         <v>169.5633330205178</v>
@@ -9875,25 +9877,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L26" t="n">
-        <v>280.0696625926461</v>
+        <v>268.1422505492329</v>
       </c>
       <c r="M26" t="n">
         <v>224.5875773965909</v>
       </c>
       <c r="N26" t="n">
-        <v>267.7874242439869</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O26" t="n">
-        <v>274.5431641330531</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9957,19 +9959,19 @@
         <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
-        <v>188.7780910708764</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N27" t="n">
-        <v>178.2555772781585</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O27" t="n">
-        <v>187.2005682293567</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>168.8950431824673</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10039,10 +10041,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N28" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O28" t="n">
         <v>169.5633330205178</v>
@@ -10115,22 +10117,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L29" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M29" t="n">
-        <v>274.7849853934995</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N29" t="n">
-        <v>273.8751450035847</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O29" t="n">
-        <v>268.4554433734553</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P29" t="n">
-        <v>225.4521708613878</v>
+        <v>263.7221668148831</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10194,22 +10196,22 @@
         <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M30" t="n">
-        <v>186.7499129699912</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O30" t="n">
-        <v>189.2287463302419</v>
+        <v>177.3013342868286</v>
       </c>
       <c r="P30" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10276,10 +10278,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M31" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N31" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O31" t="n">
         <v>169.5633330205178</v>
@@ -10355,19 +10357,19 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M32" t="n">
-        <v>272.7568072926143</v>
+        <v>258.7980306913736</v>
       </c>
       <c r="N32" t="n">
-        <v>273.8751450035847</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O32" t="n">
-        <v>274.5431641330531</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P32" t="n">
-        <v>275.6495788582964</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>184.5928109969086</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>175.7917594273756</v>
+        <v>173.3605162388727</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P33" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10513,10 +10515,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M34" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N34" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O34" t="n">
         <v>169.5633330205178</v>
@@ -10586,16 +10588,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>258.6972920061668</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L35" t="n">
-        <v>280.0696625926461</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7849853934995</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N35" t="n">
-        <v>273.8751450035847</v>
+        <v>257.8881903014589</v>
       </c>
       <c r="O35" t="n">
         <v>224.3457561361446</v>
@@ -10662,13 +10664,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>184.5928109969086</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L36" t="n">
-        <v>185.2879282822859</v>
+        <v>173.3605162388727</v>
       </c>
       <c r="M36" t="n">
         <v>138.5806830739679</v>
@@ -10677,13 +10679,13 @@
         <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>179.7325774753315</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>180.8224552258806</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10750,10 +10752,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M37" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N37" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O37" t="n">
         <v>169.5633330205178</v>
@@ -10823,22 +10825,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L38" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M38" t="n">
-        <v>274.7849853934995</v>
+        <v>258.7980306913736</v>
       </c>
       <c r="N38" t="n">
-        <v>267.7874242439869</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10902,25 +10904,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041688</v>
       </c>
       <c r="L39" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N39" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>179.7325774753315</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.6796377307795</v>
+        <v>167.2842349333412</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10987,10 +10989,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M40" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530837</v>
       </c>
       <c r="N40" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O40" t="n">
         <v>169.5633330205178</v>
@@ -11063,22 +11065,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L41" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M41" t="n">
-        <v>274.7849853934995</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N41" t="n">
-        <v>267.7874242439869</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O41" t="n">
-        <v>274.5431641330531</v>
+        <v>262.6157520896399</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11139,10 +11141,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>184.5928109969086</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L42" t="n">
-        <v>175.7917594273756</v>
+        <v>165.8925254848475</v>
       </c>
       <c r="M42" t="n">
         <v>138.5806830739679</v>
@@ -11154,10 +11156,10 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>180.8224552258806</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.6796377307795</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11224,10 +11226,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M43" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N43" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O43" t="n">
         <v>169.5633330205178</v>
@@ -11297,13 +11299,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>262.8575733500862</v>
       </c>
       <c r="N44" t="n">
         <v>223.6777370066762</v>
@@ -11312,7 +11314,7 @@
         <v>224.3457561361446</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q44" t="n">
         <v>216.7480476275882</v>
@@ -11373,19 +11375,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>165.1974081994702</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O45" t="n">
         <v>139.0313383333333</v>
@@ -11458,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23969,22 +23971,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>322.7712187152656</v>
+        <v>327.1037314747738</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>332.9206277583789</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H20" t="n">
-        <v>287.9464953912448</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>172.7677091995118</v>
+        <v>187.8376116053884</v>
       </c>
       <c r="U20" t="n">
         <v>251.4777635765444</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>130.2446200193129</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U21" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>181.7113230427466</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>205.775469786323</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>154.2642216115697</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>132.2090473401705</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24136,16 +24138,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>95.96161341289593</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6921809331995</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I22" t="n">
-        <v>129.3576635420625</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J22" t="n">
         <v>88.83884492777894</v>
@@ -24175,19 +24177,19 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S22" t="n">
-        <v>222.3574069614225</v>
+        <v>182.4760427572537</v>
       </c>
       <c r="T22" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24209,19 +24211,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>306.4073247576898</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>347.9905301642556</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>97.63694573720002</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
@@ -24263,7 +24265,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>278.3358135256108</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -24272,7 +24274,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>115.1747176134363</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>108.3787264925174</v>
       </c>
       <c r="G24" t="n">
         <v>136.0232102050423</v>
@@ -24339,19 +24341,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>180.4433001035242</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>154.2642216115697</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="25">
@@ -24382,10 +24384,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I25" t="n">
-        <v>129.3576635420625</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
         <v>14.77440971783335</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
         <v>173.3911476697823</v>
@@ -24415,16 +24417,16 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V25" t="n">
-        <v>202.7389430700306</v>
+        <v>213.0549868627703</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>250.9650712963837</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333.5190019944865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24449,13 +24451,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>347.9905301642556</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H26" t="n">
         <v>338.1439033881534</v>
@@ -24464,7 +24466,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>98.29622287176242</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>172.7677091995118</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
@@ -24503,10 +24505,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>330.9802349270005</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24522,7 +24524,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>120.8281759304924</v>
+        <v>135.8980783363691</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -24540,7 +24542,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>42.28966650179463</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>199.7919387530915</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>153.4737434216775</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -24643,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>203.9315827361665</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>213.0549868627703</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>191.0128543412774</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24680,22 +24682,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>327.1037314747738</v>
       </c>
       <c r="D29" t="n">
-        <v>312.3908557909214</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>357.0964554836323</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I29" t="n">
         <v>205.224307868124</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>187.8376116053884</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
@@ -24740,13 +24742,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>310.6487527963857</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24771,7 +24773,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>91.80933324136529</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
         <v>110.4625155221328</v>
@@ -24807,22 +24809,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>118.7642059087358</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>174.4597690702927</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>196.7812254486232</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -24847,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>95.96161341289593</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24859,7 +24861,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J31" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K31" t="n">
         <v>14.77440971783335</v>
@@ -24883,7 +24885,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S31" t="n">
         <v>222.3574069614225</v>
@@ -24892,16 +24894,16 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>235.8548623941556</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V31" t="n">
-        <v>228.5354678115981</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>191.0128543412774</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.5190019944865</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24923,10 +24925,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>338.9041587916104</v>
+        <v>343.2366715511186</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>367.412499276372</v>
       </c>
       <c r="G32" t="n">
         <v>414.8547654038309</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>106.7233171098452</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -24977,10 +24979,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -24999,13 +25001,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>101.8985466109685</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
@@ -25047,22 +25049,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>168.5436458275541</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>140.202327286515</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -25117,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.76069987584818</v>
+        <v>44.63319428481628</v>
       </c>
       <c r="R34" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S34" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U34" t="n">
-        <v>261.6513871357231</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V34" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>235.895168890507</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>175.9429519354007</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.5190019944865</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C35" t="n">
-        <v>322.7712187152656</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>347.9905301642556</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25169,7 +25171,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I35" t="n">
         <v>205.224307868124</v>
@@ -25214,13 +25216,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>300.332709003646</v>
+        <v>310.6487527963857</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>115.1747176134363</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>101.8985466109685</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H36" t="n">
         <v>110.4625155221328</v>
@@ -25293,13 +25295,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>214.8618411589682</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y36" t="n">
-        <v>153.4737434216775</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="37">
@@ -25324,19 +25326,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8895889301081</v>
+        <v>147.5364930569095</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6340720089168</v>
+        <v>121.752707804748</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>113.8771825932348</v>
       </c>
       <c r="J37" t="n">
-        <v>88.83884492777894</v>
+        <v>48.95748072361009</v>
       </c>
       <c r="K37" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
-        <v>203.9315827361665</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
         <v>286.0522703910642</v>
@@ -25391,7 +25393,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>327.1037314747738</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -25439,7 +25441,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>170.7374461325074</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
@@ -25448,16 +25450,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>278.3358135256108</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>300.332709003646</v>
+        <v>310.6487527963857</v>
       </c>
       <c r="X38" t="n">
-        <v>320.6641911342608</v>
+        <v>330.9802349270005</v>
       </c>
       <c r="Y38" t="n">
-        <v>342.4731947875588</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>115.1747176134363</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -25482,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>91.80933324136529</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,16 +25520,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>129.0802497014756</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>184.7758128630324</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>196.7812254486232</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.8862834937752</v>
+        <v>144.9561858996519</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25609,13 +25611,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>261.6916936320744</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X40" t="n">
-        <v>175.9429519354007</v>
+        <v>186.2589957281404</v>
       </c>
       <c r="Y40" t="n">
-        <v>168.5512658708597</v>
+        <v>178.8673096635994</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>333.5190019944865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>316.7876876820341</v>
+        <v>327.1037314747738</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>321.4772271635665</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
@@ -25643,7 +25645,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I41" t="n">
         <v>205.224307868124</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.63694573720002</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U41" t="n">
         <v>251.4777635765444</v>
@@ -25694,7 +25696,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>131.1442197232321</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -25719,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>91.80933324136529</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>154.2642216115697</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>168.5436458275541</v>
       </c>
     </row>
     <row r="43">
@@ -25828,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S43" t="n">
-        <v>172.159998964514</v>
+        <v>187.2299013703906</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
@@ -25846,13 +25848,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>235.895168890507</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3477906124271</v>
+        <v>178.8673096635994</v>
       </c>
     </row>
     <row r="44">
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>293.4057159314875</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -25944,16 +25946,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>135.8980783363691</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>116.152069503005</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>103.6248678793804</v>
       </c>
       <c r="G45" t="n">
         <v>136.0232102050423</v>
@@ -26032,10 +26034,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>128.0082247259392</v>
       </c>
       <c r="H46" t="n">
         <v>161.6340720089168</v>
@@ -26077,13 +26079,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>250.9650712963836</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372283.7668444572</v>
+        <v>363955.5510819591</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372283.7668444572</v>
+        <v>363955.551081959</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372283.7668444573</v>
+        <v>363955.5510819591</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372283.7668444572</v>
+        <v>363955.551081959</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372283.7668444573</v>
+        <v>363955.5510819591</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372283.7668444573</v>
+        <v>363955.5510819589</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372283.7668444574</v>
+        <v>363955.5510819591</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372283.7668444573</v>
+        <v>363955.5510819591</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>328907.7982288524</v>
+        <v>363955.5510819592</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="C2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="D2" t="n">
         <v>53049.64487562134</v>
       </c>
       <c r="E2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="F2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="G2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="H2" t="n">
-        <v>60041.18959820703</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="I2" t="n">
-        <v>60041.18959820702</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="J2" t="n">
-        <v>60041.18959820703</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="K2" t="n">
-        <v>60041.18959820702</v>
+        <v>58698.80821005049</v>
       </c>
       <c r="L2" t="n">
-        <v>60041.18959820702</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="M2" t="n">
-        <v>60041.18959820702</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="N2" t="n">
-        <v>60041.18959820703</v>
+        <v>58698.80821005049</v>
       </c>
       <c r="O2" t="n">
-        <v>60041.18959820701</v>
+        <v>58698.80821005048</v>
       </c>
       <c r="P2" t="n">
-        <v>53049.64487562133</v>
+        <v>58698.80821005049</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13543.7124542379</v>
+        <v>10760.35099456259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9426.917582396205</v>
       </c>
     </row>
     <row r="4">
@@ -26433,31 +26435,31 @@
         <v>10609.92897512426</v>
       </c>
       <c r="H4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="I4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="J4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="K4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="L4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="M4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="N4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="O4" t="n">
-        <v>12079.43026361794</v>
+        <v>11797.28500705203</v>
       </c>
       <c r="P4" t="n">
-        <v>10609.92897512426</v>
+        <v>11797.28500705203</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="I5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="J5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="K5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="L5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="M5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613466</v>
       </c>
       <c r="N5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="O5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8812.115900497061</v>
+        <v>8812.115900497083</v>
       </c>
       <c r="C6" t="n">
         <v>8812.115900497061</v>
       </c>
       <c r="D6" t="n">
-        <v>8812.115900497076</v>
+        <v>8812.115900497083</v>
       </c>
       <c r="E6" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049707</v>
       </c>
       <c r="F6" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049708</v>
       </c>
       <c r="G6" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049708</v>
       </c>
       <c r="H6" t="n">
-        <v>31366.04447413914</v>
+        <v>33716.38526482238</v>
       </c>
       <c r="I6" t="n">
-        <v>44909.75692837704</v>
+        <v>44476.73625938498</v>
       </c>
       <c r="J6" t="n">
-        <v>44909.75692837704</v>
+        <v>44476.73625938498</v>
       </c>
       <c r="K6" t="n">
-        <v>44909.75692837704</v>
+        <v>44476.736259385</v>
       </c>
       <c r="L6" t="n">
-        <v>44909.75692837704</v>
+        <v>44476.73625938498</v>
       </c>
       <c r="M6" t="n">
-        <v>44909.75692837704</v>
+        <v>44476.73625938498</v>
       </c>
       <c r="N6" t="n">
-        <v>44909.75692837704</v>
+        <v>44476.736259385</v>
       </c>
       <c r="O6" t="n">
-        <v>44909.75692837703</v>
+        <v>44476.73625938498</v>
       </c>
       <c r="P6" t="n">
-        <v>42439.71590049706</v>
+        <v>35049.81867698879</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="O4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>44.10968723731074</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q20" t="n">
         <v>4.059542658712616</v>
@@ -36200,22 +36202,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L21" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M21" t="n">
-        <v>40.70123914199824</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36285,10 +36287,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M22" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N22" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O22" t="n">
         <v>34.56820802997106</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="L23" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M23" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>44.10968723731075</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q23" t="n">
         <v>4.059542658712616</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="M24" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M25" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N25" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O25" t="n">
         <v>34.56820802997106</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>44.10968723731074</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O26" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N27" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O27" t="n">
-        <v>48.16922989602337</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M28" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N28" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O28" t="n">
         <v>34.56820802997106</v>
@@ -36835,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N29" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O29" t="n">
-        <v>44.10968723731075</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M30" t="n">
-        <v>48.16922989602339</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O30" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M31" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N31" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O31" t="n">
         <v>34.56820802997106</v>
@@ -37075,19 +37077,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.16922989602339</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="N32" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O32" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P32" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>40.70123914199824</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M34" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N34" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O34" t="n">
         <v>34.56820802997106</v>
@@ -37306,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>44.10968723731074</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="L35" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="M35" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="N35" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478274</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="L36" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349535</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M37" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="N37" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="O37" t="n">
         <v>34.56820802997106</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478272</v>
       </c>
       <c r="N38" t="n">
-        <v>44.10968723731075</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="Q38" t="n">
         <v>4.059542658712616</v>
@@ -37622,25 +37624,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="L39" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.19740799690857</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M40" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="N40" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416883</v>
       </c>
       <c r="O40" t="n">
         <v>34.56820802997106</v>
@@ -37783,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N41" t="n">
-        <v>44.10968723731074</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O41" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L42" t="n">
-        <v>40.70123914199824</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37946,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M43" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N43" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O43" t="n">
         <v>34.56820802997106</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>30.80200519947018</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
